--- a/biology/Histoire de la zoologie et de la botanique/François-Nicolas_Martinet/François-Nicolas_Martinet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François-Nicolas_Martinet/François-Nicolas_Martinet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Nicolas_Martinet</t>
+          <t>François-Nicolas_Martinet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Nicolas Martinet (1731-1800 ?) est un ingénieur et graveur français.
 Il réalise la gravure de très nombreux ouvrages d'histoire naturelle, notamment en ornithologie. Il a travaillé notamment sur l'Ornithologie de Mathurin Jacques Brisson (1760).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Nicolas_Martinet</t>
+          <t>François-Nicolas_Martinet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1731[Où ?], Martinet a une formation d'ingénieur et de dessinateur. La gravure est dans un premier temps une profession secondaire, mais sa popularité le pousse à en faire son activité principale. 
 Il grave les illustrations d'oiseaux pour les ouvrages des plus influents ornithologues français du XVIIIe siècle. Il collabore notamment à l'Histoire naturelle des oiseaux de Buffon, en gravant 1 008 illustrations.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Nicolas_Martinet</t>
+          <t>François-Nicolas_Martinet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,26 +565,28 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gravures
 François-Nicolas Martinet réalise de nombreuses gravures parmi lesquelles on peut retenir : 
-L'Escamoteuse d'après François Eisen, département des arts graphiques du Louvre[1].
-Plusieurs gravures, réalisées d'après les dessins de Charles-Michel-Ange Challe, de catafalques de personnages importants morts en 1766-1768 à savoir : Marie-Josèphe de Saxe[2], Élisabeth Farnèse, reine d'Espagne[3], Stanislas Leszczynski, roi de Pologne[4], Philippe Ier de Parme[5], Louis de France (1729-1765)[6] et Marie Leszczynska[7].
-Plusieurs gravures représentant un projet de vaisseau volant conçu par l'aéronaute Jean-Pierre Blanchard lui sont attribuées : mécanique du vaisseau volant[8], coupe du vaisseau[9], etc.
-Bataille de Fleurus, dessin de Martinet et gravure d'Edme Bovinet[10].
-Le Bal du May, dessin de Michel-Ange Slodtz et gravure de Martinet[11]
+L'Escamoteuse d'après François Eisen, département des arts graphiques du Louvre.
+Plusieurs gravures, réalisées d'après les dessins de Charles-Michel-Ange Challe, de catafalques de personnages importants morts en 1766-1768 à savoir : Marie-Josèphe de Saxe, Élisabeth Farnèse, reine d'Espagne, Stanislas Leszczynski, roi de Pologne, Philippe Ier de Parme, Louis de France (1729-1765) et Marie Leszczynska.
+Plusieurs gravures représentant un projet de vaisseau volant conçu par l'aéronaute Jean-Pierre Blanchard lui sont attribuées : mécanique du vaisseau volant, coupe du vaisseau, etc.
+Bataille de Fleurus, dessin de Martinet et gravure d'Edme Bovinet.
+Le Bal du May, dessin de Michel-Ange Slodtz et gravure de Martinet
 Le musée du Nouveau Monde de La Rochelle dispose, parmi ses collections, d'un certain nombre d'estampes de natures ornithologiques, réalisées par l'artiste, parmi lesquelles :
-Coucou de Cayenne[12], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Couroucou de la Guiane[13], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Le Perroquet maillé, de Cayenne[14], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Coulon-Chaud, de Cayenne[15], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Pluvier armé de Cayenne[16], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Petit Butor, de Cayenne[17],  gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Le Canard jensen, de la Louisiane,[18] gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Chaucas chauve de Cayenne[19], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
-Le Curicaca, de Cayenne[20], gravé, aquarelle, H. 24 ; L. 20,5, vers 1787.
-Le Grebifoulque, de Cayenne[21], gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Coucou de Cayenne, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Couroucou de la Guiane, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Le Perroquet maillé, de Cayenne, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Coulon-Chaud, de Cayenne, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Pluvier armé de Cayenne, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Petit Butor, de Cayenne,  gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Le Canard jensen, de la Louisiane, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Chaucas chauve de Cayenne, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
+Le Curicaca, de Cayenne, gravé, aquarelle, H. 24 ; L. 20,5, vers 1787.
+Le Grebifoulque, de Cayenne, gravé, aquarelle, eau-forte, H. 24 ; L. 20,5, vers 1787.
 Etc...
 	Gravures diverses
 			L'Escamoteuse
@@ -578,12 +594,12 @@
 			Le Bal de May
 Illustrations d'ouvrage
 Il dessine ou (et) grave les planches de nombreux ouvrages dont :
-Mathurin Jacques Brisson, Ornithologie ou Méthode contenant la division des oiseaux en ordres, sections, genres, espèces &amp; leur variétés : à laquelle on a joint une description exacte de chaque espèce, avec les citations des auteurs qui en ont traité, les noms qu'ils leur ont donnés, ceux que leur ont donnés les différentes nations &amp; les noms vulgaires, Paris, 1760, ouvrage en six volumes imprimé sur deux colonnes avec 255 planches d'oiseaux dessinées et gravées par Martinet[22].
+Mathurin Jacques Brisson, Ornithologie ou Méthode contenant la division des oiseaux en ordres, sections, genres, espèces &amp; leur variétés : à laquelle on a joint une description exacte de chaque espèce, avec les citations des auteurs qui en ont traité, les noms qu'ils leur ont donnés, ceux que leur ont donnés les différentes nations &amp; les noms vulgaires, Paris, 1760, ouvrage en six volumes imprimé sur deux colonnes avec 255 planches d'oiseaux dessinées et gravées par Martinet.
 	Dessins et gravures dans Ornithologie de M. J. Brisson
 			Épervier et Gerfaut
 			Sarcelles mâle et femelle
 			Avocette et Flamant rose
-Diderot et d’Alembert (sous la direction), Encyclopédie ou Dictionnaire raisonné des sciences, des arts et des métiers, recueil des planches sur les sciences, les arts libéraux et les arts méchaniques, avec leur explication, cinquième livraison ou sixième volume avec 294 planches, Paris, 1768[23]. Martinet dessine cent planches qui seront gravées par Robert Bénard, dont 24 de mammifères, 6 de poissons, 5 de batraciens et reptiles, 18 de crustacés, moules et oursins, 8 de polypiers, 21 d'oiseaux, 9 d'insectes et 9 de végétaux.
+Diderot et d’Alembert (sous la direction), Encyclopédie ou Dictionnaire raisonné des sciences, des arts et des métiers, recueil des planches sur les sciences, les arts libéraux et les arts méchaniques, avec leur explication, cinquième livraison ou sixième volume avec 294 planches, Paris, 1768. Martinet dessine cent planches qui seront gravées par Robert Bénard, dont 24 de mammifères, 6 de poissons, 5 de batraciens et reptiles, 18 de crustacés, moules et oursins, 8 de polypiers, 21 d'oiseaux, 9 d'insectes et 9 de végétaux.
 	Gravures illustrant l'Encyclopédie d'après un dessin de F.N. Martinet
 			Rhinocéros et éléphant
 			Oiseaux (Paille-en-cul et oiseau de paradis)
@@ -591,16 +607,16 @@
 			Coquillages (Patelles et Nautiles)
 			Végétal (Vanille et cirier ou arbre à suif)
 Martinet dessine et grave les planches de trois ouvrages réalisés par deux auteurs différents et décrivant les plus beaux monuments de Paris :
-Tome 1 - Edme Beguillet, Description historique de Paris et de ses plus beaux monuments, Paris, 1779, 384 pages et 22 pages de gravures[24] : Entrée du faubourg Saint-Marceau, Boulevard de l'Hôpital, Cabinet de physique de M. le duc de Chaulnes, Porte Saint-Bernard, Porte Saint-Martin, Porte Saint-Denis, Porte Saint-Antoine, Barrière de la conférence, Grille de Chaillot, Place dauphine, Place des victoires, Place royale, Statue équestre de Louis le Grand etc.
-Tome 2 - Jean-Charles Poncelin de La Roche-Tilhac, Histoire de Paris et description de ses plus beaux monuments, Paris, 1780, 414 pages et 13 pages de gravures[25] : Druide occupé à instruire un jeune seigneur, Porte principale du cloître Saint-Denis, Porte de l'église Saint-Denis, Charlemagne, Église Notre-Dame de Paris, François Ier, Pierre Danès etc.
-Tome 3 - Jean-Charles Poncelin de La Roche-Tilhac, Histoire de Paris et description de ses plus beaux monuments, Paris, 1781, 420 pages et 20 pages de gravures[26] : Le Collège de Sorbonne, Mausolée du cardinal de Richelieu, Collège Louis le Grand, Collège d'Harcourt, Collège de Navarre, Collège de Montaigu, collège de Lisieux etc.
+Tome 1 - Edme Beguillet, Description historique de Paris et de ses plus beaux monuments, Paris, 1779, 384 pages et 22 pages de gravures : Entrée du faubourg Saint-Marceau, Boulevard de l'Hôpital, Cabinet de physique de M. le duc de Chaulnes, Porte Saint-Bernard, Porte Saint-Martin, Porte Saint-Denis, Porte Saint-Antoine, Barrière de la conférence, Grille de Chaillot, Place dauphine, Place des victoires, Place royale, Statue équestre de Louis le Grand etc.
+Tome 2 - Jean-Charles Poncelin de La Roche-Tilhac, Histoire de Paris et description de ses plus beaux monuments, Paris, 1780, 414 pages et 13 pages de gravures : Druide occupé à instruire un jeune seigneur, Porte principale du cloître Saint-Denis, Porte de l'église Saint-Denis, Charlemagne, Église Notre-Dame de Paris, François Ier, Pierre Danès etc.
+Tome 3 - Jean-Charles Poncelin de La Roche-Tilhac, Histoire de Paris et description de ses plus beaux monuments, Paris, 1781, 420 pages et 20 pages de gravures : Le Collège de Sorbonne, Mausolée du cardinal de Richelieu, Collège Louis le Grand, Collège d'Harcourt, Collège de Navarre, Collège de Montaigu, collège de Lisieux etc.
 	Dessins et gravures illustrant Paris et ses plus beaux monuments
 			Place Dauphine
 			place Vendôme
 			Collège de Sorbonne
 			Entrée de la Sainte-Chapelle
 			Pierre Danés
-François-Nicolas Martinet, Histoire des oiseaux, peints dans tous leurs aspects, apparents et sensibles, ornée de planches coloriées, Paris, chez l'auteur rue Julien le Pauvre ou chez l'Ami, libraire quai des Augustins, 1790-1796, ouvrage de 8 tomes en 9 volumes orné de 483 planches dessinées et gravées par l'auteur[27].
+François-Nicolas Martinet, Histoire des oiseaux, peints dans tous leurs aspects, apparents et sensibles, ornée de planches coloriées, Paris, chez l'auteur rue Julien le Pauvre ou chez l'Ami, libraire quai des Augustins, 1790-1796, ouvrage de 8 tomes en 9 volumes orné de 483 planches dessinées et gravées par l'auteur.
 	Dessins et gravures illustrant son ouvrage Histoire des oiseaux
 			Coq-de-roche
 			Ganga
